--- a/example_data/EMA/label_corrected/darzalex-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/darzalex-epar-product-information_en.xlsx
@@ -4613,7 +4613,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>populations - adult || populations - geriatric</t>
+          <t>populations - geriatric || populations - adult</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -6258,7 +6258,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>populations - adult || populations - geriatric</t>
+          <t>populations - geriatric || populations - adult</t>
         </is>
       </c>
       <c r="I156" t="inlineStr"/>
